--- a/biology/Virologie/Stefan_Lanka/Stefan_Lanka.xlsx
+++ b/biology/Virologie/Stefan_Lanka/Stefan_Lanka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stefan Thomas Josef Lanka (* 27 septembre 1963 dans Langenargen) est un biologiste, auteur et éditeur allemand. Il représente diverses positions scientifiquement réfutées telles que déni du SIDA est un opposant à la vaccination. Il est devenu connu du grand public grâce à un procès qu'il a gagné pour avoir affirmé l'inexistence du virus de la rougeole.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Stefan Lanka est né en 1963 à Bodensee. Il étudie la biologie à l'Université de Constance, où en 1989 il soutient sa thèse de doctorat: « Enquêtes sur l'infestation virale des algues brunes marines ». 
 Depuis 2003, il dirige le magazine anti-vaccination « Wissenschektivenplus ».
-Défenseur de l'idée que de nombreuses maladies sont psychosomatiques, il décide d'offrir une récompense de 100 000 euros à quiconque pourra lui prouver que la rougeole est causée par un virus convaincu que la maladie est une conséquence de « séparations traumatisantes ». Le docteur David Barden lui apporte une compilation de données apportant de nombreux éléments (6 articles selon le protocole du 15 avril 2015[1]) en ce sens que Lanka refuse[2]. En 2015, la justice allemande le condamne à payer la somme convenue[2].
-Par la suite, Lanka fait appel du jugement et gagne son appel le 16 février 2016[3]. Les experts ont constaté qu’aucune des six publications présentées au procès n’apporte la preuve scientifique de l’existence du présumé virus de la rougeole comme l’indique le paragraphe 122 du jugement.
+Défenseur de l'idée que de nombreuses maladies sont psychosomatiques, il décide d'offrir une récompense de 100 000 euros à quiconque pourra lui prouver que la rougeole est causée par un virus convaincu que la maladie est une conséquence de « séparations traumatisantes ». Le docteur David Barden lui apporte une compilation de données apportant de nombreux éléments (6 articles selon le protocole du 15 avril 2015) en ce sens que Lanka refuse. En 2015, la justice allemande le condamne à payer la somme convenue.
+Par la suite, Lanka fait appel du jugement et gagne son appel le 16 février 2016. Les experts ont constaté qu’aucune des six publications présentées au procès n’apporte la preuve scientifique de l’existence du présumé virus de la rougeole comme l’indique le paragraphe 122 du jugement.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Notices d'autorité : VIAF ISNI LCCN GND Tchéquie WorldCat 
 Stefan Lanka: Untersuchungen über Virus-Befall bei marinen Braunalgen. Diplomarbeit, Universität Konstanz 1989, online.
